--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -38,7 +38,13 @@
     <t>Reserve Margin</t>
   </si>
   <si>
-    <t>Perc</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The reserve margin in the U.S. dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support</t>
+  </si>
+  <si>
+    <t>countries that project changes in future reserve margin by year.</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +433,21 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -440,22 +461,117 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Q2" s="3">
         <v>0.14119999999999999</v>
       </c>
     </row>

--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -461,18 +461,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2015</v>
       </c>
@@ -521,8 +519,68 @@
       <c r="Q1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -572,6 +630,66 @@
         <v>0.14119999999999999</v>
       </c>
       <c r="Q2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="AK2" s="3">
         <v>0.14119999999999999</v>
       </c>
     </row>

--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -41,16 +46,22 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>The reserve margin in the U.S. dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support</t>
-  </si>
-  <si>
-    <t>countries that project changes in future reserve margin by year.</t>
+    <t xml:space="preserve">The reserve margin (difference between the total generation available and the forecasted peak demand) in the U.S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support countries that project </t>
+  </si>
+  <si>
+    <t>changes in future reserve margin by year.</t>
+  </si>
+  <si>
+    <t>(dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,6 +116,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -152,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,7 +201,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,18 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -415,39 +431,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -463,14 +484,19 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1">
         <v>2015</v>
       </c>
@@ -580,7 +606,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>

--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A1AEC-17DD-45EC-BAEA-94DBCB9BD6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
+    <workbookView xWindow="3120" yWindow="750" windowWidth="24750" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -56,12 +57,24 @@
   </si>
   <si>
     <t>(dimensionless)</t>
+  </si>
+  <si>
+    <t>U.S. EPS 3.0.0 Note</t>
+  </si>
+  <si>
+    <t>In EPS 3.0.0, a new peaking calculation approach was adopted.  The new approach uses Equipment Load Factors (ELFs)</t>
+  </si>
+  <si>
+    <t>that may already account for some or all of the reserve margin that utilities consider.  We set the reservere margin to</t>
+  </si>
+  <si>
+    <t>zero, but we leave the data reference above in place in case we wish to use a non-zero reserve margin in the future.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,6 +212,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +264,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,21 +456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -431,44 +476,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -478,22 +543,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -606,117 +669,117 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="R2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="U2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="V2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="W2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="X2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A1AEC-17DD-45EC-BAEA-94DBCB9BD6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="750" windowWidth="24750" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -57,24 +56,12 @@
   </si>
   <si>
     <t>(dimensionless)</t>
-  </si>
-  <si>
-    <t>U.S. EPS 3.0.0 Note</t>
-  </si>
-  <si>
-    <t>In EPS 3.0.0, a new peaking calculation approach was adopted.  The new approach uses Equipment Load Factors (ELFs)</t>
-  </si>
-  <si>
-    <t>that may already account for some or all of the reserve margin that utilities consider.  We set the reservere margin to</t>
-  </si>
-  <si>
-    <t>zero, but we leave the data reference above in place in case we wish to use a non-zero reserve margin in the future.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,23 +199,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -264,23 +234,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,19 +409,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -476,64 +431,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -543,20 +478,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -669,117 +606,117 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="M2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="N2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="O2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="P2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Q2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="R2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="S2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="T2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="U2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="V2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="W2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="X2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Y2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Z2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AA2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AB2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AC2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AD2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AE2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AF2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AG2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AH2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AI2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AJ2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AK2" s="3">
-        <v>0</v>
+        <v>0.14119999999999999</v>
       </c>
     </row>
   </sheetData>
